--- a/biology/Histoire de la zoologie et de la botanique/Jean_Bourgogne/Jean_Bourgogne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Bourgogne/Jean_Bourgogne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Bourgogne est un entomologiste français, né à Marseille le 14 février 1903  et décédé le 10 mars 1999 à Neuilly-sur-Seine[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Bourgogne est un entomologiste français, né à Marseille le 14 février 1903  et décédé le 10 mars 1999 à Neuilly-sur-Seine,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1936, il commence à travailler au Muséum national d'histoire naturelle de Paris. Il devient membre de la Société entomologique de France en 1935. Il se spécialise dans l'étude des Lepidoptera Psychidae. En 1957 il devient membre de la Lepidopterists' Society[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1936, il commence à travailler au Muséum national d'histoire naturelle de Paris. Il devient membre de la Société entomologique de France en 1935. Il se spécialise dans l'étude des Lepidoptera Psychidae. En 1957 il devient membre de la Lepidopterists' Society.
 En 1959 il crée la revue entomologique Alexanor. Il a donné sa collection au laboratoire d'entomologie du Muséum national d'histoire naturelle de Paris.
-Il a publié 221 travaux[4].
+Il a publié 221 travaux.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des taxa décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des 74 noms nouveaux qu'il a créés a été publiée sur le web[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des 74 noms nouveaux qu'il a créés a été publiée sur le web.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Taxa dédiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Agrilus bourgognei Descarpentries &amp; Villiers, 1963
 Antiophlebia bourgognei Laporte, 1975
